--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,20 +24,23 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №334</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +55,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,12 +175,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +494,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,9 +509,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -507,11 +522,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>12273.03</v>
@@ -519,11 +534,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>43586</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>12098.79</v>
@@ -549,9 +564,6 @@
       <c r="D7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №334</t>
+  </si>
+  <si>
+    <t>Оплачены пени</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,10 +550,16 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="11">
+        <v>43632</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>1852.18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Наименование / садовый участок №334</t>
   </si>
   <si>
-    <t>Оплачены пени</t>
+    <t>Оплачен взнос 2019/2020</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +499,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,31 +548,37 @@
       <c r="C4" s="6">
         <v>12098.79</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>43632</v>
+      <c r="A5" s="9">
+        <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>1852.18</v>
+      <c r="D5" s="11">
+        <v>12009</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="12">
+        <v>43964</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="11">
+        <v>12274</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +192,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -555,7 +559,7 @@
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="11">
@@ -575,10 +579,28 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13611.32</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44011</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>12099</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -500,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C4"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,8 +598,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <v>12099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44039</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="A10" sqref="A10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,6 +616,48 @@
       <c r="D9" s="11">
         <v>1513</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14515.69</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch334.xlsx
+++ b/sputnik/personal/uch/uch334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,13 +43,19 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2021 на 70 дн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +78,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +209,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,7 +522,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,34 +646,46 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="12">
+        <v>44540</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>13612</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="14">
+        <v>44540</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>952.84</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
